--- a/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_raise_positive.xlsx
@@ -422,7 +422,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.304727582060335</v>
+        <v>0.304727581920543</v>
       </c>
       <c r="C2" t="n">
         <v>0.213596992215042</v>
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0536068478086441</v>
+        <v>0.0536068477831767</v>
       </c>
       <c r="C3" t="n">
         <v>0.0321191400625014</v>
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.101153575030535</v>
+        <v>0.101153575433294</v>
       </c>
       <c r="C4" t="n">
         <v>0.0295475282231825</v>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13733326940022</v>
+        <v>0.137333269790533</v>
       </c>
       <c r="C5" t="n">
         <v>0.118260955839178</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.076073149190315</v>
+        <v>0.0760731491553689</v>
       </c>
       <c r="C6" t="n">
         <v>0.0234039473987513</v>
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.193945966663801</v>
+        <v>0.193945966576823</v>
       </c>
       <c r="C7" t="n">
         <v>0.236512672874883</v>
@@ -560,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.676754591411971</v>
+        <v>0.676754591107586</v>
       </c>
       <c r="C8" t="n">
         <v>0.644729900442054</v>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.507586812405136</v>
+        <v>0.507586812166403</v>
       </c>
       <c r="C9" t="n">
         <v>0.267898965800834</v>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100902707777813</v>
+        <v>0.100902707734255</v>
       </c>
       <c r="C10" t="n">
         <v>0.0741577479405969</v>
@@ -629,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0425133216651189</v>
+        <v>0.0425133216452964</v>
       </c>
       <c r="C11" t="n">
         <v>0.0605878953496347</v>
